--- a/data/trans_bre/P05A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P05A_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.223728997570853</v>
+        <v>-2.368017376659117</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.671587670273941</v>
+        <v>-5.547044927749847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.052878270393261</v>
+        <v>-9.201286030595606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.404528693019692</v>
+        <v>-1.599670561638888</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04701030627361724</v>
+        <v>-0.0720976926769851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1503858468465335</v>
+        <v>-0.1413710853466556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2094597181991819</v>
+        <v>-0.2313084120394139</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07334762388510895</v>
+        <v>-0.08571316364829679</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.10499688397033</v>
+        <v>9.901435357847349</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.57175900427726</v>
+        <v>7.56690590526908</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.527900010285411</v>
+        <v>5.232623335322717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.62341588315326</v>
+        <v>15.57790123934423</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3769699870583788</v>
+        <v>0.3787015737246884</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.201321158876599</v>
+        <v>0.2323667038755899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1794545286151231</v>
+        <v>0.1626045105649662</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.17816986767932</v>
+        <v>1.137260638364776</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.650358613488884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.846219463470258</v>
+        <v>1.846219463470261</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1418255383009554</v>
@@ -749,7 +749,7 @@
         <v>0.04491856479005209</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1001888788010877</v>
+        <v>0.1001888788010878</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.03049737347327</v>
+        <v>-0.7166709412653126</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.648862186813528</v>
+        <v>-7.519375300317331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.821658068774878</v>
+        <v>-3.845833734479944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.127955965691887</v>
+        <v>-4.472485420736079</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03660809476567717</v>
+        <v>-0.02259477028219986</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1822924870995225</v>
+        <v>-0.1798441005139226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09565361463972719</v>
+        <v>-0.09653617622815565</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1853908593258687</v>
+        <v>-0.2006675386459558</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.906566008101839</v>
+        <v>9.408515512900333</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.180863515364832</v>
+        <v>3.5457130509793</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.278135271279777</v>
+        <v>7.100964311511852</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.080944297596114</v>
+        <v>8.094549738194749</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3378895994981155</v>
+        <v>0.3791078529706705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0851883806253914</v>
+        <v>0.09492864571430711</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2114321970381873</v>
+        <v>0.2130305495205376</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5529277341238353</v>
+        <v>0.5320192430162918</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.239233072042286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.4739678942073888</v>
+        <v>-0.4739678942073972</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2540696704037448</v>
@@ -849,7 +849,7 @@
         <v>0.1268837839698051</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.02244343658610018</v>
+        <v>-0.02244343658610057</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.08312872472627</v>
+        <v>2.535146033517206</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.244096482631707</v>
+        <v>-2.941120694228888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.706836464665058</v>
+        <v>-1.037278255441102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.964544240981339</v>
+        <v>-5.68207561077664</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06499807214663819</v>
+        <v>0.07834512152175345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08035906763017099</v>
+        <v>-0.07196873840294188</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.04883640912984659</v>
+        <v>-0.02865660959759986</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2073259833154604</v>
+        <v>-0.2343298800956626</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.82365897532625</v>
+        <v>12.95049405792888</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.481338140643594</v>
+        <v>7.857609338885334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.155666768833109</v>
+        <v>9.528823656647077</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.964868260933356</v>
+        <v>3.710574520247766</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4830680895534922</v>
+        <v>0.4621998609106764</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2091966537451459</v>
+        <v>0.2172960075461972</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.303038476067916</v>
+        <v>0.3009154954312447</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2198945590482919</v>
+        <v>0.2003717121012328</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.2805356228218647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5961830550356401</v>
+        <v>0.5961830550356428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0948891701435431</v>
@@ -949,7 +949,7 @@
         <v>0.007184291631162063</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.028488766850428</v>
+        <v>0.02848876685042814</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.872832196678888</v>
+        <v>-3.370873317232596</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.976964302720026</v>
+        <v>-2.252121269489084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.471724346472755</v>
+        <v>-5.327935905157029</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.468872906363704</v>
+        <v>-3.62427222069296</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05271849807056488</v>
+        <v>-0.09115866855930847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04685223033308484</v>
+        <v>-0.05157339839780551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1326555311677393</v>
+        <v>-0.1279861149103554</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1466877142572334</v>
+        <v>-0.1510639288189166</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.552400484033717</v>
+        <v>8.798427534141062</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.23049085819107</v>
+        <v>10.25829717192116</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.672340077198544</v>
+        <v>5.789711697179618</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.753023026310213</v>
+        <v>4.515575948154601</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3343787181648681</v>
+        <v>0.300617757855933</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2746431326140595</v>
+        <v>0.2758492758099089</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1572941024306891</v>
+        <v>0.1586512637037744</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2658230886184607</v>
+        <v>0.2509916153979636</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.3880368164487613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.007175805921873</v>
+        <v>5.007175805921879</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2110882119175268</v>
@@ -1049,7 +1049,7 @@
         <v>0.01047464142510813</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3099002529431434</v>
+        <v>0.3099002529431438</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01023713219764826</v>
+        <v>0.128798664540565</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.13994681337336</v>
+        <v>-11.08024913371946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.35107112520638</v>
+        <v>-5.790598855270387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.239491487782226</v>
+        <v>1.332027639017715</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.000296724406330706</v>
+        <v>-0.004374049954970514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2372272901252002</v>
+        <v>-0.2351011285305237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1358732537608874</v>
+        <v>-0.1435489325150207</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06386241591568478</v>
+        <v>0.07129428721425955</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.82243575978766</v>
+        <v>13.12726046990404</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.798487340262257</v>
+        <v>2.698089811895996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.721235925315958</v>
+        <v>7.154867496388754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.327579912743561</v>
+        <v>8.503650986198249</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4617938648156929</v>
+        <v>0.4737180587821321</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07384327464612081</v>
+        <v>0.06709340960127801</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2257542755340116</v>
+        <v>0.2148151357781191</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5888589710301513</v>
+        <v>0.5892295492450828</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.999681753969818</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2159564963425203</v>
+        <v>0.2159564963425092</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2330471573380588</v>
@@ -1149,7 +1149,7 @@
         <v>-0.05201646787175174</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.01214923510380241</v>
+        <v>0.01214923510380178</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.6354449777907791</v>
+        <v>-0.888187642313172</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-11.40853854725448</v>
+        <v>-11.70173918428446</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-9.685748588311698</v>
+        <v>-9.447835862799145</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.191646203454583</v>
+        <v>-4.01766772853877</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02184695201340895</v>
+        <v>-0.02549423331075645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2407917932909308</v>
+        <v>-0.2396007153102687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2309550095344321</v>
+        <v>-0.2138392973150939</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2085569235946457</v>
+        <v>-0.1922096560749983</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.92730340747368</v>
+        <v>13.3422232345671</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.194790130579198</v>
+        <v>4.167569232116946</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.788101203321196</v>
+        <v>5.658910039045582</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.26533786031659</v>
+        <v>4.181890236853994</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5323137779808651</v>
+        <v>0.5651404895313275</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09947965397270828</v>
+        <v>0.1053802466815749</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1361778189710972</v>
+        <v>0.163914509889717</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2792448996232211</v>
+        <v>0.2707455882611964</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.760046194858689</v>
+        <v>-7.030205703382333</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.52775556443693</v>
+        <v>-6.269900245888324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.87575859213866</v>
+        <v>-6.737398852020418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.11199395228902</v>
+        <v>-3.130622219664617</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1817717804484187</v>
+        <v>-0.2086977795490918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.180597806958968</v>
+        <v>-0.1475242078159781</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2030183270494257</v>
+        <v>-0.2091952940971452</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1758788470793965</v>
+        <v>-0.1773287803539845</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.057485848703184</v>
+        <v>8.7982719148707</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.34464456140577</v>
+        <v>9.611597603108919</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.190127210665423</v>
+        <v>7.441603983699206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.318929482059956</v>
+        <v>5.776495861615545</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3799794814836882</v>
+        <v>0.388838153909691</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3221358164862638</v>
+        <v>0.292764524883021</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3397732641510873</v>
+        <v>0.288834501009441</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4272136924680236</v>
+        <v>0.485066630240602</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.6321246976857431</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.827592424557742</v>
+        <v>1.827592424557739</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1653868371588249</v>
@@ -1349,7 +1349,7 @@
         <v>0.01756907360887617</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.09850869922718045</v>
+        <v>0.09850869922718029</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.374093386206664</v>
+        <v>2.500816036412672</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.284920549740911</v>
+        <v>-2.246456628998641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.636590286607862</v>
+        <v>-1.620070349235077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.03672902033424552</v>
+        <v>0.1022159166312388</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0784053205327038</v>
+        <v>0.0819614629941358</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05560237535049632</v>
+        <v>-0.05531398437989624</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04396362669691147</v>
+        <v>-0.04534402042230234</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.002089176625934871</v>
+        <v>0.005250926366016171</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.983966230252565</v>
+        <v>7.277535050327498</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.628825992583964</v>
+        <v>2.603292963602643</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.062349905212381</v>
+        <v>3.113341437273942</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.746706544240201</v>
+        <v>3.738729813675823</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2482905308787056</v>
+        <v>0.2568022576692071</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06833855370122907</v>
+        <v>0.06790611490926593</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08903272042401836</v>
+        <v>0.08850117676755255</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2189982864446592</v>
+        <v>0.213499406078023</v>
       </c>
     </row>
     <row r="28">
